--- a/data/StockinRecord.xlsx
+++ b/data/StockinRecord.xlsx
@@ -29,6 +29,66 @@
     <t>登记人</t>
   </si>
   <si>
+    <t>2018-05-26</t>
+  </si>
+  <si>
+    <t>110003</t>
+  </si>
+  <si>
+    <t>营养快线升级版</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>160005</t>
+  </si>
+  <si>
+    <t>《人间失格》</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>张三丰</t>
+  </si>
+  <si>
+    <t>2018-05-13</t>
+  </si>
+  <si>
+    <t>130001</t>
+  </si>
+  <si>
+    <t>罗技G102</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>lizi</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>110004</t>
+  </si>
+  <si>
+    <t>农夫山泉</t>
+  </si>
+  <si>
+    <t>吕奉先</t>
+  </si>
+  <si>
     <t>2018-06-01</t>
   </si>
   <si>
@@ -38,24 +98,102 @@
     <t>可口可乐</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>刘备</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>130001</t>
-  </si>
-  <si>
-    <t>罗技G102</t>
+    <t>2018-05-22</t>
+  </si>
+  <si>
+    <t>160008</t>
+  </si>
+  <si>
+    <t>《大数据技术原理与应用》</t>
+  </si>
+  <si>
+    <t>张无忌</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>160003</t>
+  </si>
+  <si>
+    <t>《数据挖掘技术与应用》</t>
+  </si>
+  <si>
+    <t>一灯大师</t>
+  </si>
+  <si>
+    <t>2018-05-24</t>
+  </si>
+  <si>
+    <t>160007</t>
+  </si>
+  <si>
+    <t>《云计算》</t>
+  </si>
+  <si>
+    <t>杨过</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>2018-05-30</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
+    <t>120001</t>
+  </si>
+  <si>
+    <t>美的挂机空调</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>160004</t>
+  </si>
+  <si>
+    <t>《物联网设计》</t>
+  </si>
+  <si>
+    <t>欧阳锋</t>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+  </si>
+  <si>
+    <t>160009</t>
+  </si>
+  <si>
+    <t>《算法设计与分析》</t>
+  </si>
+  <si>
+    <t>黄老邪</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>170001</t>
+  </si>
+  <si>
+    <t>水果刀</t>
+  </si>
+  <si>
     <t>2018-05-31</t>
   </si>
   <si>
@@ -68,7 +206,52 @@
     <t>2</t>
   </si>
   <si>
-    <t>2018-05-30</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>陈浩南</t>
+  </si>
+  <si>
+    <t>130002</t>
+  </si>
+  <si>
+    <t>罗技M100</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>山鸡</t>
+  </si>
+  <si>
+    <t>130003</t>
+  </si>
+  <si>
+    <t>罗技M115</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>李寻欢</t>
+  </si>
+  <si>
+    <t>陆小凤</t>
+  </si>
+  <si>
+    <t>110002</t>
+  </si>
+  <si>
+    <t>卫龙辣条</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>Pc冷冷</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
   </si>
   <si>
     <t>160001</t>
@@ -80,217 +263,34 @@
     <t>曹操</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2018-05-29</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>王五</t>
+    <t>160002</t>
+  </si>
+  <si>
+    <t>《智能革命》</t>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>2018-05-25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>美国队长</t>
+  </si>
+  <si>
+    <t>张十三</t>
   </si>
   <si>
     <t>2018-05-28</t>
-  </si>
-  <si>
-    <t>2018-05-26</t>
-  </si>
-  <si>
-    <t>110003</t>
-  </si>
-  <si>
-    <t>营养快线升级版</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>110002</t>
-  </si>
-  <si>
-    <t>卫龙辣条</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>美国队长</t>
-  </si>
-  <si>
-    <t>2018-05-25</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>2018-05-24</t>
-  </si>
-  <si>
-    <t>160002</t>
-  </si>
-  <si>
-    <t>《智能革命》</t>
-  </si>
-  <si>
-    <t>丘处机</t>
-  </si>
-  <si>
-    <t>160007</t>
-  </si>
-  <si>
-    <t>《云计算》</t>
-  </si>
-  <si>
-    <t>杨过</t>
-  </si>
-  <si>
-    <t>2018-05-23</t>
-  </si>
-  <si>
-    <t>160003</t>
-  </si>
-  <si>
-    <t>《数据挖掘技术与应用》</t>
-  </si>
-  <si>
-    <t>一灯大师</t>
-  </si>
-  <si>
-    <t>2018-05-22</t>
-  </si>
-  <si>
-    <t>160008</t>
-  </si>
-  <si>
-    <t>《大数据技术原理与应用》</t>
-  </si>
-  <si>
-    <t>张无忌</t>
-  </si>
-  <si>
-    <t>2018-05-21</t>
-  </si>
-  <si>
-    <t>110004</t>
-  </si>
-  <si>
-    <t>农夫山泉</t>
-  </si>
-  <si>
-    <t>吕奉先</t>
-  </si>
-  <si>
-    <t>张十三</t>
-  </si>
-  <si>
-    <t>2018-05-16</t>
-  </si>
-  <si>
-    <t>160004</t>
-  </si>
-  <si>
-    <t>《物联网设计》</t>
-  </si>
-  <si>
-    <t>欧阳锋</t>
-  </si>
-  <si>
-    <t>2018-05-15</t>
-  </si>
-  <si>
-    <t>160005</t>
-  </si>
-  <si>
-    <t>《人间失格》</t>
-  </si>
-  <si>
-    <t>张三丰</t>
-  </si>
-  <si>
-    <t>2018-05-14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2018-05-13</t>
-  </si>
-  <si>
-    <t>120001</t>
-  </si>
-  <si>
-    <t>美的挂机空调</t>
-  </si>
-  <si>
-    <t>lizi</t>
-  </si>
-  <si>
-    <t>2018-05-12</t>
-  </si>
-  <si>
-    <t>160009</t>
-  </si>
-  <si>
-    <t>《算法设计与分析》</t>
-  </si>
-  <si>
-    <t>黄老邪</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>陆小凤</t>
-  </si>
-  <si>
-    <t>130003</t>
-  </si>
-  <si>
-    <t>罗技M115</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>李寻欢</t>
-  </si>
-  <si>
-    <t>170001</t>
-  </si>
-  <si>
-    <t>水果刀</t>
-  </si>
-  <si>
-    <t>Pc冷冷</t>
-  </si>
-  <si>
-    <t>2018-05-11</t>
-  </si>
-  <si>
-    <t>130002</t>
-  </si>
-  <si>
-    <t>罗技M100</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>山鸡</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>陈浩南</t>
   </si>
 </sst>
 </file>
@@ -381,19 +381,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -401,19 +401,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -421,19 +421,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -441,19 +441,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -461,19 +461,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -481,19 +481,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -501,19 +501,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -521,19 +521,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -541,19 +541,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -561,19 +561,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -581,19 +581,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -601,19 +601,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -621,19 +621,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -641,19 +641,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -661,19 +661,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -681,19 +681,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -701,19 +701,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -721,19 +721,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -741,19 +741,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -761,19 +761,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -781,19 +781,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -801,19 +801,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -821,19 +821,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -861,19 +861,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -881,19 +881,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -901,19 +901,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>89</v>
@@ -941,19 +941,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
         <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -961,19 +961,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
